--- a/Alex Bd/Project/PERS_DESAP_NOLOCYLOCPORyear_Df.xlsx
+++ b/Alex Bd/Project/PERS_DESAP_NOLOCYLOCPORyear_Df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandertrejo/Documents/Lotus Analytica/Desaparecidos/Alex/desaparecidos/Alex Bd/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8873F-6BDC-7E4F-838D-9CD274B991ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F09C0-E54D-9D49-8AA8-F07D0F984034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="23160" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="67">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -227,6 +227,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,10 +286,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,21 +590,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:E249"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -619,7 +622,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>45078</v>
       </c>
       <c r="C2">
@@ -636,7 +639,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>45078</v>
       </c>
       <c r="C3">
@@ -653,7 +656,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>45078</v>
       </c>
       <c r="C4">
@@ -670,7 +673,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>45078</v>
       </c>
       <c r="C5">
@@ -687,7 +690,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>45078</v>
       </c>
       <c r="C6">
@@ -704,7 +707,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>45078</v>
       </c>
       <c r="C7">
@@ -721,7 +724,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>45078</v>
       </c>
       <c r="C8">
@@ -738,7 +741,7 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>45078</v>
       </c>
       <c r="C9">
@@ -755,7 +758,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>45078</v>
       </c>
       <c r="C10">
@@ -772,7 +775,7 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>45078</v>
       </c>
       <c r="C11">
@@ -789,7 +792,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>45078</v>
       </c>
       <c r="C12">
@@ -806,7 +809,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>45078</v>
       </c>
       <c r="C13">
@@ -823,7 +826,7 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>45078</v>
       </c>
       <c r="C14">
@@ -840,7 +843,7 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>45078</v>
       </c>
       <c r="C15">
@@ -857,7 +860,7 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>45078</v>
       </c>
       <c r="C16">
@@ -874,7 +877,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>45078</v>
       </c>
       <c r="C17">
@@ -891,7 +894,7 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>45078</v>
       </c>
       <c r="C18">
@@ -908,7 +911,7 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>45078</v>
       </c>
       <c r="C19">
@@ -925,7 +928,7 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>45078</v>
       </c>
       <c r="C20">
@@ -942,7 +945,7 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>45078</v>
       </c>
       <c r="C21">
@@ -959,7 +962,7 @@
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>45078</v>
       </c>
       <c r="C22">
@@ -976,7 +979,7 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>45078</v>
       </c>
       <c r="C23">
@@ -993,7 +996,7 @@
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>45078</v>
       </c>
       <c r="C24">
@@ -1010,7 +1013,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>45078</v>
       </c>
       <c r="C25">
@@ -1027,7 +1030,7 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>45078</v>
       </c>
       <c r="C26">
@@ -1044,7 +1047,7 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>45078</v>
       </c>
       <c r="C27">
@@ -1061,7 +1064,7 @@
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>45078</v>
       </c>
       <c r="C28">
@@ -1078,7 +1081,7 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>45078</v>
       </c>
       <c r="C29">
@@ -1095,7 +1098,7 @@
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>45078</v>
       </c>
       <c r="C30">
@@ -1112,7 +1115,7 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>45078</v>
       </c>
       <c r="C31">
@@ -1129,7 +1132,7 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>45078</v>
       </c>
       <c r="C32">
@@ -1146,7 +1149,7 @@
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>45078</v>
       </c>
       <c r="C33">
@@ -1163,7 +1166,7 @@
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>45078</v>
       </c>
       <c r="C34">
@@ -1180,7 +1183,7 @@
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>45078</v>
       </c>
       <c r="C35">
@@ -1197,7 +1200,7 @@
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>45078</v>
       </c>
       <c r="C36">
@@ -1214,7 +1217,7 @@
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>45078</v>
       </c>
       <c r="C37">
@@ -1231,7 +1234,7 @@
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>45078</v>
       </c>
       <c r="C38">
@@ -1248,7 +1251,7 @@
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>45078</v>
       </c>
       <c r="C39">
@@ -1265,7 +1268,7 @@
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>45078</v>
       </c>
       <c r="C40">
@@ -1282,7 +1285,7 @@
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>45078</v>
       </c>
       <c r="C41">
@@ -1299,7 +1302,7 @@
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>45078</v>
       </c>
       <c r="C42">
@@ -1316,7 +1319,7 @@
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>45078</v>
       </c>
       <c r="C43">
@@ -1333,7 +1336,7 @@
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>45078</v>
       </c>
       <c r="C44">
@@ -1350,7 +1353,7 @@
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>45078</v>
       </c>
       <c r="C45">
@@ -1367,7 +1370,7 @@
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>45078</v>
       </c>
       <c r="C46">
@@ -1384,7 +1387,7 @@
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>45078</v>
       </c>
       <c r="C47">
@@ -1401,7 +1404,7 @@
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>45078</v>
       </c>
       <c r="C48">
@@ -1418,7 +1421,7 @@
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>45078</v>
       </c>
       <c r="C49">
@@ -1435,7 +1438,7 @@
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>45078</v>
       </c>
       <c r="C50">
@@ -1452,7 +1455,7 @@
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>45078</v>
       </c>
       <c r="C51">
@@ -1469,7 +1472,7 @@
       <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>45078</v>
       </c>
       <c r="C52">
@@ -1486,7 +1489,7 @@
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>45078</v>
       </c>
       <c r="C53">
@@ -1503,7 +1506,7 @@
       <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>45078</v>
       </c>
       <c r="C54">
@@ -1520,7 +1523,7 @@
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>45078</v>
       </c>
       <c r="C55">
@@ -1537,7 +1540,7 @@
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>45078</v>
       </c>
       <c r="C56">
@@ -1554,7 +1557,7 @@
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>45078</v>
       </c>
       <c r="C57">
@@ -1571,7 +1574,7 @@
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>45078</v>
       </c>
       <c r="C58">
@@ -1588,7 +1591,7 @@
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>45078</v>
       </c>
       <c r="C59">
@@ -1605,7 +1608,7 @@
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>45078</v>
       </c>
       <c r="C60">
@@ -1622,7 +1625,7 @@
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>45078</v>
       </c>
       <c r="C61">
@@ -1639,7 +1642,7 @@
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>45078</v>
       </c>
       <c r="C62">
@@ -1656,7 +1659,7 @@
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>45078</v>
       </c>
       <c r="C63">
@@ -1673,7 +1676,7 @@
       <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>45079</v>
       </c>
       <c r="C64">
@@ -1690,7 +1693,7 @@
       <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>45079</v>
       </c>
       <c r="C65">
@@ -1707,7 +1710,7 @@
       <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>45079</v>
       </c>
       <c r="C66">
@@ -1724,7 +1727,7 @@
       <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>45079</v>
       </c>
       <c r="C67">
@@ -1741,7 +1744,7 @@
       <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>45079</v>
       </c>
       <c r="C68">
@@ -1758,7 +1761,7 @@
       <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>45079</v>
       </c>
       <c r="C69">
@@ -1775,7 +1778,7 @@
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>45079</v>
       </c>
       <c r="C70">
@@ -1792,7 +1795,7 @@
       <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>45079</v>
       </c>
       <c r="C71">
@@ -1809,7 +1812,7 @@
       <c r="A72" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>45079</v>
       </c>
       <c r="C72">
@@ -1826,7 +1829,7 @@
       <c r="A73" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>45079</v>
       </c>
       <c r="C73">
@@ -1843,7 +1846,7 @@
       <c r="A74" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>45079</v>
       </c>
       <c r="C74">
@@ -1860,7 +1863,7 @@
       <c r="A75" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>45079</v>
       </c>
       <c r="C75">
@@ -1877,7 +1880,7 @@
       <c r="A76" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>45079</v>
       </c>
       <c r="C76">
@@ -1894,7 +1897,7 @@
       <c r="A77" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>45079</v>
       </c>
       <c r="C77">
@@ -1911,7 +1914,7 @@
       <c r="A78" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>45079</v>
       </c>
       <c r="C78">
@@ -1928,7 +1931,7 @@
       <c r="A79" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>45079</v>
       </c>
       <c r="C79">
@@ -1945,7 +1948,7 @@
       <c r="A80" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>45079</v>
       </c>
       <c r="C80">
@@ -1962,7 +1965,7 @@
       <c r="A81" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>45079</v>
       </c>
       <c r="C81">
@@ -1979,7 +1982,7 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>45079</v>
       </c>
       <c r="C82">
@@ -1996,7 +1999,7 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>45079</v>
       </c>
       <c r="C83">
@@ -2013,7 +2016,7 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>45079</v>
       </c>
       <c r="C84">
@@ -2030,7 +2033,7 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>45079</v>
       </c>
       <c r="C85">
@@ -2047,7 +2050,7 @@
       <c r="A86" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>45079</v>
       </c>
       <c r="C86">
@@ -2064,7 +2067,7 @@
       <c r="A87" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>45079</v>
       </c>
       <c r="C87">
@@ -2081,7 +2084,7 @@
       <c r="A88" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>45079</v>
       </c>
       <c r="C88">
@@ -2098,7 +2101,7 @@
       <c r="A89" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>45079</v>
       </c>
       <c r="C89">
@@ -2115,7 +2118,7 @@
       <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>45079</v>
       </c>
       <c r="C90">
@@ -2132,7 +2135,7 @@
       <c r="A91" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>45079</v>
       </c>
       <c r="C91">
@@ -2149,7 +2152,7 @@
       <c r="A92" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>45079</v>
       </c>
       <c r="C92">
@@ -2166,7 +2169,7 @@
       <c r="A93" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>45079</v>
       </c>
       <c r="C93">
@@ -2183,7 +2186,7 @@
       <c r="A94" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>45079</v>
       </c>
       <c r="C94">
@@ -2200,7 +2203,7 @@
       <c r="A95" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>45079</v>
       </c>
       <c r="C95">
@@ -2217,7 +2220,7 @@
       <c r="A96" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>45079</v>
       </c>
       <c r="C96">
@@ -2234,7 +2237,7 @@
       <c r="A97" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>45079</v>
       </c>
       <c r="C97">
@@ -2251,7 +2254,7 @@
       <c r="A98" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>45079</v>
       </c>
       <c r="C98">
@@ -2268,7 +2271,7 @@
       <c r="A99" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>45079</v>
       </c>
       <c r="C99">
@@ -2285,7 +2288,7 @@
       <c r="A100" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>45079</v>
       </c>
       <c r="C100">
@@ -2302,7 +2305,7 @@
       <c r="A101" t="s">
         <v>42</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>45079</v>
       </c>
       <c r="C101">
@@ -2319,7 +2322,7 @@
       <c r="A102" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>45079</v>
       </c>
       <c r="C102">
@@ -2336,7 +2339,7 @@
       <c r="A103" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>45079</v>
       </c>
       <c r="C103">
@@ -2353,7 +2356,7 @@
       <c r="A104" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>45079</v>
       </c>
       <c r="C104">
@@ -2370,7 +2373,7 @@
       <c r="A105" t="s">
         <v>46</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>45079</v>
       </c>
       <c r="C105">
@@ -2387,7 +2390,7 @@
       <c r="A106" t="s">
         <v>47</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>45079</v>
       </c>
       <c r="C106">
@@ -2404,7 +2407,7 @@
       <c r="A107" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>45079</v>
       </c>
       <c r="C107">
@@ -2421,7 +2424,7 @@
       <c r="A108" t="s">
         <v>49</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>45079</v>
       </c>
       <c r="C108">
@@ -2438,7 +2441,7 @@
       <c r="A109" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>45079</v>
       </c>
       <c r="C109">
@@ -2455,7 +2458,7 @@
       <c r="A110" t="s">
         <v>51</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>45079</v>
       </c>
       <c r="C110">
@@ -2472,7 +2475,7 @@
       <c r="A111" t="s">
         <v>52</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>45079</v>
       </c>
       <c r="C111">
@@ -2489,7 +2492,7 @@
       <c r="A112" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>45079</v>
       </c>
       <c r="C112">
@@ -2506,7 +2509,7 @@
       <c r="A113" t="s">
         <v>54</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>45079</v>
       </c>
       <c r="C113">
@@ -2523,7 +2526,7 @@
       <c r="A114" t="s">
         <v>55</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>45079</v>
       </c>
       <c r="C114">
@@ -2540,7 +2543,7 @@
       <c r="A115" t="s">
         <v>56</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>45079</v>
       </c>
       <c r="C115">
@@ -2557,7 +2560,7 @@
       <c r="A116" t="s">
         <v>57</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>45079</v>
       </c>
       <c r="C116">
@@ -2574,7 +2577,7 @@
       <c r="A117" t="s">
         <v>58</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>45079</v>
       </c>
       <c r="C117">
@@ -2591,7 +2594,7 @@
       <c r="A118" t="s">
         <v>59</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>45079</v>
       </c>
       <c r="C118">
@@ -2608,7 +2611,7 @@
       <c r="A119" t="s">
         <v>60</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>45079</v>
       </c>
       <c r="C119">
@@ -2625,7 +2628,7 @@
       <c r="A120" t="s">
         <v>61</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>45079</v>
       </c>
       <c r="C120">
@@ -2642,7 +2645,7 @@
       <c r="A121" t="s">
         <v>62</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>45079</v>
       </c>
       <c r="C121">
@@ -2659,7 +2662,7 @@
       <c r="A122" t="s">
         <v>63</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>45079</v>
       </c>
       <c r="C122">
@@ -2676,7 +2679,7 @@
       <c r="A123" t="s">
         <v>64</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>45079</v>
       </c>
       <c r="C123">
@@ -2693,7 +2696,7 @@
       <c r="A124" t="s">
         <v>65</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>45079</v>
       </c>
       <c r="C124">
@@ -2710,7 +2713,7 @@
       <c r="A125" t="s">
         <v>66</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>45079</v>
       </c>
       <c r="C125">
@@ -2722,6 +2725,1246 @@
       <c r="E125">
         <v>4050</v>
       </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C126">
+        <v>20954</v>
+      </c>
+      <c r="D126">
+        <v>326</v>
+      </c>
+      <c r="E126">
+        <v>18605</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C135">
+        <v>17</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C136">
+        <v>31</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C137">
+        <v>29</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C138">
+        <v>304</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C139">
+        <v>51</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C140">
+        <v>83</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C141">
+        <v>116</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C142">
+        <v>53</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C144">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C145">
+        <v>30</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C146">
+        <v>14</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C149">
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C151">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C152">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C153">
+        <v>18</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>35</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C156">
+        <v>16</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C157">
+        <v>18</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C158">
+        <v>31</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C160">
+        <v>21</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C161">
+        <v>28</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C162">
+        <v>38</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C163">
+        <v>33</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>43</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C164">
+        <v>55</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C165">
+        <v>79</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C166">
+        <v>105</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C167">
+        <v>97</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>47</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C168">
+        <v>106</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C169">
+        <v>169</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C170">
+        <v>356</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C171">
+        <v>1535</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C172">
+        <v>1897</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C173">
+        <v>2835</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C174">
+        <v>5209</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>54</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C175">
+        <v>6864</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>55</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C176">
+        <v>6594</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>56</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C177">
+        <v>9490</v>
+      </c>
+      <c r="D177">
+        <v>10</v>
+      </c>
+      <c r="E177">
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C178">
+        <v>9410</v>
+      </c>
+      <c r="D178">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>58</v>
+      </c>
+      <c r="B179" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C179">
+        <v>7383</v>
+      </c>
+      <c r="D179">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C180">
+        <v>8546</v>
+      </c>
+      <c r="D180">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>60</v>
+      </c>
+      <c r="B181" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C181">
+        <v>10398</v>
+      </c>
+      <c r="D181">
+        <v>46</v>
+      </c>
+      <c r="E181">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>61</v>
+      </c>
+      <c r="B182" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C182">
+        <v>10630</v>
+      </c>
+      <c r="D182">
+        <v>94</v>
+      </c>
+      <c r="E182">
+        <v>6590</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C183">
+        <v>14813</v>
+      </c>
+      <c r="D183">
+        <v>258</v>
+      </c>
+      <c r="E183">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C184">
+        <v>14212</v>
+      </c>
+      <c r="D184">
+        <v>31</v>
+      </c>
+      <c r="E184">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>64</v>
+      </c>
+      <c r="B185" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C185">
+        <v>14402</v>
+      </c>
+      <c r="D185">
+        <v>7</v>
+      </c>
+      <c r="E185">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>65</v>
+      </c>
+      <c r="B186" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C186">
+        <v>13339</v>
+      </c>
+      <c r="D186">
+        <v>23</v>
+      </c>
+      <c r="E186">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>66</v>
+      </c>
+      <c r="B187" s="2">
+        <v>45080</v>
+      </c>
+      <c r="C187">
+        <v>5857</v>
+      </c>
+      <c r="D187">
+        <v>16</v>
+      </c>
+      <c r="E187">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
